--- a/swings/2021-11-22/BINANCE_SPOT_DUSK_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_DUSK_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -603,6 +609,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +664,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>0.321</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -709,6 +719,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -763,6 +774,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>0.3258</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -815,6 +829,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -867,6 +882,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -919,6 +935,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -973,6 +990,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>0.3197</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1025,6 +1045,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1079,6 +1100,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>0.3301</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1133,6 +1157,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>0.3251</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1187,6 +1214,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>0.3274</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1239,6 +1269,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1293,6 +1324,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>0.3215</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1347,6 +1381,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O17" t="n">
+        <v>0.3246</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1401,6 +1438,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>0.3219</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1455,6 +1495,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>0.3234</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1507,6 +1550,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1559,6 +1603,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1611,6 +1656,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1663,6 +1709,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1717,6 +1764,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>0.3173</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1769,6 +1819,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1823,6 +1874,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>0.321</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1875,6 +1929,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1927,6 +1982,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1981,6 +2037,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O29" t="n">
+        <v>0.2926</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2035,6 +2094,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>0.3141</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2087,6 +2149,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2139,6 +2202,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2193,6 +2257,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>0.2953</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2245,6 +2312,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2297,6 +2365,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2349,6 +2418,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2403,6 +2473,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>0.3038</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2457,6 +2530,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>0.2993</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2511,6 +2587,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>0.303</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2563,6 +2642,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2615,6 +2695,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2669,6 +2750,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>0.2992</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2721,6 +2805,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2773,6 +2858,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2825,6 +2911,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2877,6 +2964,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2931,6 +3019,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O47" t="n">
+        <v>0.3069</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2983,6 +3074,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3035,6 +3127,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3089,6 +3182,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>0.3014</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3141,6 +3237,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3195,6 +3292,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>0.3066</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3249,6 +3349,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>0.3015</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3303,6 +3406,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O54" t="n">
+        <v>0.3064</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3357,6 +3463,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>0.3045</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3409,6 +3518,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3461,6 +3571,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3513,6 +3624,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3567,6 +3679,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O59" t="n">
+        <v>0.311</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3621,6 +3736,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O60" t="n">
+        <v>0.3062</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3673,6 +3791,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3725,6 +3844,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3779,6 +3899,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>0.3106</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3833,6 +3956,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O64" t="n">
+        <v>0.3041</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3887,6 +4013,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O65" t="n">
+        <v>0.3087</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3941,6 +4070,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>0.3062</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3993,6 +4125,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4045,6 +4178,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4099,6 +4233,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O69" t="n">
+        <v>0.3124</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4153,6 +4290,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>0.3082</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4205,6 +4345,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4257,6 +4398,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4311,6 +4453,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O73" t="n">
+        <v>0.326</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4363,6 +4508,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4415,6 +4561,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4469,6 +4616,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O76" t="n">
+        <v>0.3134</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4523,6 +4673,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>0.3211</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4575,6 +4728,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4627,6 +4781,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4679,6 +4834,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4731,6 +4887,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4785,6 +4942,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O82" t="n">
+        <v>0.3068</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4839,6 +4999,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O83" t="n">
+        <v>0.3237</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4893,6 +5056,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>0.318</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4945,6 +5111,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4999,6 +5166,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>0.322</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5051,6 +5221,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5105,6 +5276,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>0.3161</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5159,6 +5333,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>0.321</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5213,6 +5390,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>0.3192</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5265,6 +5445,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5317,6 +5498,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5371,6 +5553,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>0.3291</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5425,6 +5610,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>0.3212</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5477,6 +5665,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5529,6 +5718,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5583,6 +5773,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O97" t="n">
+        <v>0.3262</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5635,6 +5828,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5687,6 +5881,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5741,6 +5936,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O100" t="n">
+        <v>0.3124</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5795,6 +5993,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>0.3152</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5847,6 +6048,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5901,6 +6103,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O103" t="n">
+        <v>0.3117</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5953,6 +6158,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6007,6 +6213,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>0.3162</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6059,6 +6268,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6111,6 +6321,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6165,6 +6376,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>0.3119</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6219,6 +6433,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>0.3155</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6271,6 +6488,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6323,6 +6541,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6377,6 +6596,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O112" t="n">
+        <v>0.3068</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6429,6 +6651,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6483,6 +6706,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O114" t="n">
+        <v>0.3106</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6537,6 +6763,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O115" t="n">
+        <v>0.306</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6591,6 +6820,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>0.312</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6643,6 +6875,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6697,6 +6930,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O118" t="n">
+        <v>0.3031</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6749,6 +6985,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6803,6 +7040,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>0.3114</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6857,6 +7097,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>0.305</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6911,6 +7154,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>0.312</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6965,6 +7211,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>0.308</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7019,6 +7268,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>0.3108</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7073,6 +7325,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O125" t="n">
+        <v>0.3089</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7127,6 +7382,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>0.3107</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7179,6 +7437,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7231,6 +7490,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7285,6 +7545,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O129" t="n">
+        <v>0.3005</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7339,6 +7602,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O130" t="n">
+        <v>0.3057</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7393,6 +7659,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>0.3001</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7445,6 +7714,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7497,6 +7767,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7551,6 +7822,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>0.3101</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7605,6 +7879,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>0.305</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7659,6 +7936,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>0.3092</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7713,6 +7993,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O137" t="n">
+        <v>0.3072</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7767,6 +8050,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O138" t="n">
+        <v>0.3097</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7819,6 +8105,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7871,6 +8158,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7923,6 +8211,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7975,6 +8264,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8029,6 +8319,9 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O143" t="n">
+        <v>0.3011</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8081,6 +8374,7 @@
           <t>DUSKUSDT</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8134,6 +8428,9 @@
         <is>
           <t>DUSKUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>0.3091</v>
       </c>
     </row>
   </sheetData>
